--- a/biology/Zoologie/Argiope_submaronica/Argiope_submaronica.xlsx
+++ b/biology/Zoologie/Argiope_submaronica/Argiope_submaronica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope submaronica est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope submaronica est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre du Yucatán au Mexique à l'État de São Paulo au Brésil[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre du Yucatán au Mexique à l'État de São Paulo au Brésil,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope submaronica présente un dimorphisme sexuel important, la femelle mesure de 12,7 à 18 mm et le mâle de 3,2 à 4,7 mm[2].
-Cette espèce a été décrite comme étant prétadatrice de Rhynchonycteris naso, une espèce de chauve-souris du Costa Rica qu'elle peut prendre dans sa toile et encoconer[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope submaronica présente un dimorphisme sexuel important, la femelle mesure de 12,7 à 18 mm et le mâle de 3,2 à 4,7 mm.
+Cette espèce a été décrite comme étant prétadatrice de Rhynchonycteris naso, une espèce de chauve-souris du Costa Rica qu'elle peut prendre dans sa toile et encoconer.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été étudiée sous le nom d'Argiope savignyi[4] de 1968 à 2012[5], en l'honneur du zoologiste français Jules-César Savigny qui décrivit et donna le nom de la première des Argiope au XIXe siècle.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été étudiée sous le nom d'Argiope savignyi de 1968 à 2012, en l'honneur du zoologiste français Jules-César Savigny qui décrivit et donna le nom de la première des Argiope au XIXe siècle.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Strand, 1916 : Systematische-faunistiche Studien über paläarktische, afrikanische und amerikanische Spinnen des Senckenbergischen Museums. Archiv für Naturgeschichte, vol. 81, no A9, p. 1-153.</t>
         </is>
